--- a/biology/Botanique/Fraisier_vert/Fraisier_vert.xlsx
+++ b/biology/Botanique/Fraisier_vert/Fraisier_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragaria viridis
 Le fraisier vert (Fragaria viridis), ou fraisier des collines, est une espèce de plantes herbacées vivace de la famille des Rosaceae.
@@ -513,7 +525,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante eurasiatique à préférence continentale qui apprécie les sols calcaires et plutôt basiques, les milieux ensoleillés, chauds et secs. C'est une espèce thermoxerocalcicole.
 Elle est présente jusqu'à 1 800 m.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fraisier vert est une vivace haute de 5 à 20 cm. Elle a peu de stolons, sa tige florale atteint la même hauteur que ses feuilles.
 Les feuilles ont trois folioles soyeusement poilues à la face intérieure. Elles portent souvent des galles rouges (ce qui permet de le différencier de Fragaria vesca).
@@ -581,7 +597,9 @@
           <t>Sous espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs sous-espèces et variétés sont décrites :
 F. viridis subsp. campestris (Steven) Pawl.
@@ -621,7 +639,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un diploïde (2n=2x=14).
 Il est utilisé en hybridation pour sa tolérance au calcaire et sa résistance aux maladies foliaires.
@@ -654,7 +674,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été très peu cultivée mais un hybride entre F. vesca et F. viridis a été cultivé jusque vers 1850 mais est maintenant probablement perdu.
 </t>
@@ -685,7 +707,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">« Fragaria » provient du latin « fraga » qui signifie « fraise » et « viridis », « vert ».
 </t>
@@ -716,7 +740,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Fragaria collina Ehrh.
 Fragaria vesca var. sativa L.
